--- a/7-Skills and States Core 技能和状态核心.xlsx
+++ b/7-Skills and States Core 技能和状态核心.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
     <sheet name="Note标签" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="插件命令" sheetId="2" r:id="rId3"/>
     <sheet name="插件参数" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -5109,8 +5109,8 @@
   <sheetPr/>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5781,8 +5781,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -5861,7 +5861,7 @@
   <sheetPr/>
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/7-Skills and States Core 技能和状态核心.xlsx
+++ b/7-Skills and States Core 技能和状态核心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B82" authorId="0">
+    <comment ref="B98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="479">
   <si>
     <t>#7 Skills&amp;States Core</t>
   </si>
@@ -266,6 +266,81 @@
   </si>
   <si>
     <t>技能</t>
+  </si>
+  <si>
+    <t>&lt;List Name: name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使技能名称在技能列表中显示时显示不同。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\V[x]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作为名称的一部分将显示该变量。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;ID Sort Priority: x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用于Scene_Skill
+将技能的ID排序优先级更改为“x”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认优先级为“50”。
+优先级较高的技能将在列表中排名靠前，而优先级较低的技能将排名靠后。</t>
+    </r>
   </si>
   <si>
     <t>技能消耗标签</t>
@@ -1286,6 +1361,207 @@
     <t>类别名称。将状态分为多个类别</t>
   </si>
   <si>
+    <t>&lt;Bypass State Damage Removal: id&gt;
+&lt;Bypass State Damage Removal: id, id, id&gt;
+&lt;Bypass State Damage Removal: name&gt;
+&lt;Bypass State Damage Removal: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">攻击具有所列状态的敌人时，通常会造成伤害消除（例：睡眠）。
+使用这个标签的 技能/道具 可以绕过伤害消除。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">状态ID。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态名。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+可用于像“食梦者”这样的攻击，防止唤醒沉睡的对手。</t>
+    </r>
+  </si>
+  <si>
+    <t>技能、物品</t>
+  </si>
+  <si>
+    <t>&lt;Bypass State Damage Removal as Attacker: id&gt;
+&lt;Bypass State Damage Removal as Attacker: id, id, id&gt;
+&lt;Bypass State Damage Removal as Attacker: name&gt;
+&lt;Bypass State Damage Removal as Attacker: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻击者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用带有此标签的关联特征对象攻击具有所列状态的敌人时，绕过伤害移除。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id：状态ID。
+name：状态名。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+可用于像“睡眠打击者”这样的效果，防止攻击者唤醒正在沉睡的对手。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Bypass State Damage Removal as Target: id&gt;
+&lt;Bypass State Damage Removal as Target: id, id, id&gt;
+&lt;Bypass State Damage Removal as Target: name&gt;
+&lt;Bypass State Damage Removal as Target: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当具有此标签的关联特征对象作为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的目标时，绕过伤害消除。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id：状态ID。
+name：状态名。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+可用于“深度睡眠”等效果，以防止被攻击的目标醒来。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Resist State Category: name&gt;
 &lt;Resist State Categories: name, name, name&gt;</t>
   </si>
@@ -1372,9 +1648,6 @@
       <t>（譬如：删除3个诅咒）
 All：删除该类别的所有状态（譬如：删除所有诅咒）</t>
     </r>
-  </si>
-  <si>
-    <t>技能、物品</t>
   </si>
   <si>
     <t>&lt;Remove Other x States&gt;</t>
@@ -2092,198 +2365,78 @@
     </r>
   </si>
   <si>
-    <t>Skill Cost Plugin Commands</t>
-  </si>
-  <si>
-    <t>Skill Cost: Emulate Actor Pay</t>
-  </si>
-  <si>
-    <t>目标角色模仿支付技能成本</t>
-  </si>
-  <si>
-    <t>Skill Cost: Emulate Enemy Pay</t>
-  </si>
-  <si>
-    <t>目标敌人模仿支付技能成本</t>
-  </si>
-  <si>
-    <t>State Turns Plugin Commands</t>
-  </si>
-  <si>
-    <t>State Turns: Actor State Turns Change By</t>
-  </si>
-  <si>
-    <t>更改角色的状态回合数（增减）</t>
-  </si>
-  <si>
-    <t>State Turns: Actor State Turns Change To</t>
-  </si>
-  <si>
-    <t>更改角色的状态回合数（设置为）</t>
-  </si>
-  <si>
-    <t>State Turns: Enemy State Turns Change By</t>
-  </si>
-  <si>
-    <t>更改敌人的状态回合数（增减）</t>
-  </si>
-  <si>
-    <t>State Turns: Enemy State Turns Change To</t>
-  </si>
-  <si>
-    <t>更改敌人的状态回合数（设置为）</t>
-  </si>
-  <si>
-    <t>General Skill Settings</t>
-  </si>
-  <si>
-    <t>常规技能设定</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>常规</t>
-  </si>
-  <si>
-    <t>Use Updated Layout:</t>
-  </si>
-  <si>
-    <t>使用新的布局？（覆盖核心引擎）</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Layout Style:</t>
-  </si>
-  <si>
-    <t>布局样式（默认：上帮助，左输入）</t>
-  </si>
-  <si>
-    <t>upper/left</t>
-  </si>
-  <si>
-    <t>Skill Type Window</t>
-  </si>
-  <si>
-    <t>技能类型窗口</t>
-  </si>
-  <si>
-    <t>Style:</t>
-  </si>
-  <si>
-    <t>风格样式：仅文本/仅图标/图标+文字/自动（根据单元格大小）</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>Text Align:</t>
-  </si>
-  <si>
-    <t>文字对齐</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>Window Width:</t>
-  </si>
-  <si>
-    <t>窗口宽度（单位：像素）</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>List Window</t>
-  </si>
-  <si>
-    <t>列表窗口</t>
-  </si>
-  <si>
-    <t>Columns:</t>
-  </si>
-  <si>
-    <t>最大列数</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Shop Status Window</t>
-  </si>
-  <si>
-    <t>商店状态窗口</t>
-  </si>
-  <si>
-    <t>Show in Skill Menu?:</t>
-  </si>
-  <si>
-    <t>在技能菜单中显示？</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Adjust List Window?:</t>
-  </si>
-  <si>
-    <t>自动调整列表窗口？</t>
-  </si>
-  <si>
-    <t>Background Type:</t>
-  </si>
-  <si>
-    <t>背景类型 0-窗口  1-暗淡  2-透明</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>JS: X, Y, W, H:</t>
-  </si>
-  <si>
-    <t>JS代码，确定窗口尺寸和位置</t>
-  </si>
-  <si>
-    <t>（略）</t>
-  </si>
-  <si>
-    <t>Skill Types</t>
-  </si>
-  <si>
-    <t>技能类型</t>
-  </si>
-  <si>
-    <t>Hidden Skill Types:</t>
-  </si>
-  <si>
-    <t>隐藏技能类型：想在游戏中隐藏的技能类型的ID</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Hidden During Battle:</t>
-  </si>
-  <si>
-    <t>战斗中隐藏：插入你只想在战斗中隐藏的技能类型的ID</t>
-  </si>
-  <si>
-    <t>Icon: Normal Type:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">图标：普通类型
+    <t>Aura &amp; Miasma Notetags    光环 &amp; 瘴气</t>
+  </si>
+  <si>
+    <t>技能切换是可以ON或OFF的技能。如果ON，则该技能上的任何被动状态都将被启用（假设满足所有其他被动条件），如果OFF，则该被动状态将不会出现（即使满足所有其他条件）。</t>
+  </si>
+  <si>
+    <t>技能切换不会采取行动，即使在战斗中也是如此。它们不会消耗角色当前的轮次。玩家一次可以切换多个技能切换。</t>
+  </si>
+  <si>
+    <t>技能切换要求角色仅在技能从OFF切换到ON时支付技能成本，而不是在技能从ON切换到OFF时支付。</t>
+  </si>
+  <si>
+    <t>敌人无法切换切换技能，敌人的切换技能的被动效果将始终被视为ON。</t>
+  </si>
+  <si>
+    <t>否则，您可以使用以下JavaScript调用进行脚本调用检查等：</t>
+  </si>
+  <si>
+    <t>$gameActors.actor(2).isSkillToggled($dataSkills[3])</t>
+  </si>
+  <si>
+    <t>&lt;Toggle&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>将技能转换为切换技能。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">最好与被动状态一起使用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切换技能不能与某些技能效果一起使用：
+·主动链技能、进化矩阵技能、输入组合技能
+·Field 技能
+·物品增强技能、物品调和技能、物品投掷技能
+·切换技能不能是技能容器</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Initial Toggle: On&gt;
+&lt;Initial Toggle: Off&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>将此笔记标签与技能开关搭配。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+将此技能的初始切换设置为ON/OFF。
 </t>
     </r>
     <r>
@@ -2294,7 +2447,121 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>未分配任何图标的</t>
+      <t>-也就是说，当演员第一次学习该技能时，这决定了它将有什么切换
+-如果不使用此notetag，请参阅插件参数中的设置</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Toggle Exclusion Group: key&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>将此笔记标签与技能开关搭配。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+当切换此技能时，所有其他具有匹配“key”的切换技能都将关闭。
+例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火焰Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰霜Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷霆Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能具有&lt;Toggle Exclusion Group: Force&gt;注释标签。
+-当火焰Force切换到ON时，冰霜Force和雷霆Force将自动关闭。
+-将“key”替换为该技能要使用的切换排除组名称。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Toggle On Animation: x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>将此笔记标签与技能开关搭配。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+技能ON时，播放的动画。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果不使用此标签，则参照技能的动画。
+</t>
     </r>
     <r>
       <rPr>
@@ -2305,7 +2572,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>普通技能类型</t>
+      <t>x：</t>
     </r>
     <r>
       <rPr>
@@ -2315,26 +2582,26 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，用这个图标
-要将图标指定给技能类型，在 数据库-类型-技能类型，名称中插入 \I[x]</t>
-    </r>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Icon: Magic Type:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">图标：魔法类型
+      <t>数字。动画ID。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Toggle Off Animation: x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>将此笔记标签与技能开关搭配。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+技能OFF时，播放的动画。
 </t>
     </r>
     <r>
@@ -2345,7 +2612,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>未分配任何图标的</t>
+      <t xml:space="preserve">如果不使用此标签，则参照插件参数。
+</t>
     </r>
     <r>
       <rPr>
@@ -2356,7 +2624,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>魔法技能类型</t>
+      <t>x：</t>
     </r>
     <r>
       <rPr>
@@ -2366,14 +2634,525 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>数字。动画ID。</t>
+    </r>
+  </si>
+  <si>
+    <t>Auras（光环），是一种影响盟军的被动技能。Miasmas（瘴气）是一种影响敌军的被动技能。
+光环和瘴气，只需要来自一个来源，就可以让整个队伍或敌群处于被动状态，前提是发出光环/瘴气的战士还活着并且正在战斗中。</t>
+  </si>
+  <si>
+    <t>&lt;Aura State: x&gt;
+&lt;Aura States: x, x, x&gt;
+&lt;Aura State: name&gt;
+&lt;Aura States: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发出一种影响战斗者盟友的光环，并使每个受影响的成员处于被动状态‘x’。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">状态ID。数字。以确定添加哪个状态作为此光环生成的被动状态。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">状态名称。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：如果您计划通过技能应用光环效果，则必须通过目标已学到的技能，而不是通过特质附于的技能。</t>
+    </r>
+  </si>
+  <si>
+    <t>角色、职业、技能、武器、防具、敌人</t>
+  </si>
+  <si>
+    <t>&lt;Miasma State: x&gt;
+&lt;Miasma States: x, x, x&gt;
+&lt;Miasma State: name&gt;
+&lt;Miasma States: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">释放一种瘴气，影响战斗者的对手，并使每个受影响的成员处于被动状态‘x’。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：状态ID。数字。
+name：状态名称。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：如果您计划通过技能应用瘴气效果，则必须通过目标已学到的技能，而不是通过特质附于的技能。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Not User Aura&gt;
+&lt;Aura Not For User&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防止发射光环的用户，受到相关光环的影响。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（个人理解：国战曹洪的+1马技能，只能对同队列的队友生效）</t>
+    </r>
+  </si>
+  <si>
+    <t>角色、职业、技能、武器、防具、敌人、状态</t>
+  </si>
+  <si>
+    <t>&lt;Allow Dead Aura&gt;
+&lt;Allow Dead Miasma&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">即使在发射用户处于死亡状态后，也允许光环/瘴气继续发射。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·当与角色、职业、技能、武器、防具、敌人对象一起使用时，它只会影响该对象发出的光环/瘴气。
+·当与状态一起使用时，只要它被用作光环或瘴气，无论它从哪里发出，都会产生这种效果。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优先于 &lt;Dead Aura Only&gt; 和 &lt;Dead Miasma Only&gt; 标签</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Dead Aura Only&gt;
+&lt;Dead Miasma Only&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">仅当发射用户处于死亡状态时，才允许发射光环/瘴气。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·当与角色、职业、技能、武器、防具、敌人对象一起使用时，它只会影响该对象发出的光环/瘴气。
+·当与状态一起使用时，只要它被用作光环或瘴气，无论它从哪里发出，都会产生这种效果。</t>
+    </r>
+  </si>
+  <si>
+    <t>Skill Cost Plugin Commands</t>
+  </si>
+  <si>
+    <t>Skill Cost: Emulate Actor Pay</t>
+  </si>
+  <si>
+    <t>目标角色模仿支付技能成本</t>
+  </si>
+  <si>
+    <t>Skill Cost: Emulate Enemy Pay</t>
+  </si>
+  <si>
+    <t>目标敌人模仿支付技能成本</t>
+  </si>
+  <si>
+    <t>State Turns Plugin Commands</t>
+  </si>
+  <si>
+    <t>State Turns: Actor State Turns Change By</t>
+  </si>
+  <si>
+    <t>更改角色的状态回合数（增减）</t>
+  </si>
+  <si>
+    <t>State Turns: Actor State Turns Change To</t>
+  </si>
+  <si>
+    <t>更改角色的状态回合数（设置为）</t>
+  </si>
+  <si>
+    <t>State Turns: Enemy State Turns Change By</t>
+  </si>
+  <si>
+    <t>更改敌人的状态回合数（增减）</t>
+  </si>
+  <si>
+    <t>State Turns: Enemy State Turns Change To</t>
+  </si>
+  <si>
+    <t>更改敌人的状态回合数（设置为）</t>
+  </si>
+  <si>
+    <t>General Skill Settings</t>
+  </si>
+  <si>
+    <t>常规技能设定</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>Use Updated Layout:</t>
+  </si>
+  <si>
+    <t>使用新的布局？（覆盖核心引擎）</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Layout Style:</t>
+  </si>
+  <si>
+    <t>布局样式（默认：上帮助，左输入）</t>
+  </si>
+  <si>
+    <t>upper/left</t>
+  </si>
+  <si>
+    <t>Skill Type Window</t>
+  </si>
+  <si>
+    <t>技能类型窗口</t>
+  </si>
+  <si>
+    <t>Style:</t>
+  </si>
+  <si>
+    <t>风格样式：仅文本/仅图标/图标+文字/自动（根据单元格大小）</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Text Align:</t>
+  </si>
+  <si>
+    <t>文字对齐</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>Window Width:</t>
+  </si>
+  <si>
+    <t>窗口宽度（单位：像素）</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>List Window</t>
+  </si>
+  <si>
+    <t>列表窗口</t>
+  </si>
+  <si>
+    <t>Columns:</t>
+  </si>
+  <si>
+    <t>最大列数</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Shop Status Window</t>
+  </si>
+  <si>
+    <t>商店状态窗口</t>
+  </si>
+  <si>
+    <t>Show in Skill Menu?:</t>
+  </si>
+  <si>
+    <t>在技能菜单中显示？</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Adjust List Window?:</t>
+  </si>
+  <si>
+    <t>自动调整列表窗口？</t>
+  </si>
+  <si>
+    <t>Background Type:</t>
+  </si>
+  <si>
+    <t>背景类型 0-窗口  1-暗淡  2-透明</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>JS: X, Y, W, H:</t>
+  </si>
+  <si>
+    <t>JS代码，确定窗口尺寸和位置</t>
+  </si>
+  <si>
+    <t>（略）</t>
+  </si>
+  <si>
+    <t>Skill Types</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>Hidden Skill Types:</t>
+  </si>
+  <si>
+    <t>隐藏技能类型：想在游戏中隐藏的技能类型的ID</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Hidden During Battle:</t>
+  </si>
+  <si>
+    <t>战斗中隐藏：插入你只想在战斗中隐藏的技能类型的ID</t>
+  </si>
+  <si>
+    <t>Icon: Normal Type:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">图标：普通类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未分配任何图标的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通技能类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>，用这个图标
 要将图标指定给技能类型，在 数据库-类型-技能类型，名称中插入 \I[x]</t>
     </r>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Icon: Magic Type:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">图标：魔法类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未分配任何图标的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔法技能类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用这个图标
+要将图标指定给技能类型，在 数据库-类型-技能类型，名称中插入 \I[x]</t>
+    </r>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
+    <t>Sort: Alphabetical</t>
+  </si>
+  <si>
+    <t>插入您想要按字母顺序排序的技能类型的ID。</t>
+  </si>
+  <si>
     <t>Global JS Effects</t>
   </si>
   <si>
@@ -2483,6 +3262,154 @@
   </si>
   <si>
     <t>如何绘制此技能消耗类型的代码</t>
+  </si>
+  <si>
+    <t>Skill Toggle Types</t>
+  </si>
+  <si>
+    <t>技能切换类型</t>
+  </si>
+  <si>
+    <t>技能切换是一种新型技能。他们不会执行任何动作，而是会打开/关闭技能所具有的任何被动效果。</t>
+  </si>
+  <si>
+    <t>技能切换不会采取行动，即使在战斗中也是如此。它们不会消耗角色当前的回合。玩家一次可以切换多个技能切换。</t>
+  </si>
+  <si>
+    <t>技能切换要求角色仅在技能从关闭切换到打开时支付技能成本，而不是在技能从打开切换到关闭时支付。</t>
+  </si>
+  <si>
+    <t>敌人无法切换切换技能，敌人的切换技能的被动效果将始终被视为开启。</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>Default Toggle:</t>
+  </si>
+  <si>
+    <t>切换技能的默认切换设置是什么？</t>
+  </si>
+  <si>
+    <t>Toggle Off Animation:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">关闭技能时播放此动画。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-需要VisuMZ_0_CoreEngine。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-默认情况下，“打开动画”是技能动画设置为的任何值</t>
+    </r>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>Toggle On Text Color:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">打开文本颜色：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-使用#rrggbb用于自定义颜色，或使用常规数字用于Window Skin中的文本颜色。
+-适用于技能名称，而不是技能成本</t>
+    </r>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>词汇</t>
+  </si>
+  <si>
+    <t>Toggle Type:</t>
+  </si>
+  <si>
+    <t>切换类型：-技能切换显示在状态窗口中。</t>
+  </si>
+  <si>
+    <t>Toggle</t>
+  </si>
+  <si>
+    <t>Toggle On:</t>
+  </si>
+  <si>
+    <t>打开：-为已打开的技能显示的文本</t>
+  </si>
+  <si>
+    <t>\FS[22]\C[0][ON]</t>
+  </si>
+  <si>
+    <t>Toggle Off:</t>
+  </si>
+  <si>
+    <t>关闭：-为已关闭的技能显示的文本</t>
+  </si>
+  <si>
+    <t>\FS[22]\C[8][OFF]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Off Text Location:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">文本外位置：-技能成本中的[OFF]文本在哪里？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- front
+- back</t>
+    </r>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>Gauge Settings</t>
@@ -2762,9 +3689,6 @@
   </si>
   <si>
     <t>正面状态 的 回合颜色</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>Turn Color: Negative:</t>
@@ -3108,7 +4032,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3193,6 +4117,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3355,16 +4286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3377,15 +4308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3406,12 +4330,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3659,7 +4590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3677,6 +4608,68 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3800,137 +4793,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3946,6 +4939,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -3982,6 +4978,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4051,13 +5056,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4113,6 +5142,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="000000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4126,15 +5160,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>313055</xdr:colOff>
+      <xdr:colOff>227330</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1788795</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:colOff>2513330</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4147,8 +5181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13809980" y="161925"/>
-          <a:ext cx="1475740" cy="956310"/>
+          <a:off x="14343380" y="28575"/>
+          <a:ext cx="2286000" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4161,13 +5195,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>139065</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>182245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>677545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4181,7 +5215,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13635990" y="1382395"/>
+          <a:off x="14255115" y="2353945"/>
           <a:ext cx="5711190" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4195,13 +5229,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>487680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4217,7 +5251,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13585825" y="4716780"/>
+          <a:off x="14204950" y="5688330"/>
           <a:ext cx="878840" cy="1080135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4231,13 +5265,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2493645</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>106045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2010410</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>720725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4256,7 +5290,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13466445" y="22508845"/>
+          <a:off x="14085570" y="23480395"/>
           <a:ext cx="2040890" cy="1471930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4275,13 +5309,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4299,7 +5333,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9505950" y="4381500"/>
+          <a:off x="9848850" y="4552950"/>
           <a:ext cx="5715000" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4313,13 +5347,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>271145</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4337,7 +5371,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9505950" y="4895850"/>
+          <a:off x="9848850" y="5067300"/>
           <a:ext cx="3700145" cy="3620135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4375,7 +5409,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9505950" y="171450"/>
+          <a:off x="9848850" y="171450"/>
           <a:ext cx="5715000" cy="3219450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4389,13 +5423,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>657225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4409,7 +5443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9544050" y="14906625"/>
+          <a:off x="9886950" y="18564225"/>
           <a:ext cx="4876800" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4448,7 +5482,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="3133725"/>
+          <a:off x="8915400" y="3133725"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4487,7 +5521,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="3609975"/>
+          <a:off x="8934450" y="3609975"/>
           <a:ext cx="406400" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4501,13 +5535,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4525,7 +5559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9563100" y="11763375"/>
+          <a:off x="9906000" y="15420975"/>
           <a:ext cx="2752725" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4543,13 +5577,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3179445</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5523230</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4567,7 +5601,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5227320" y="7320280"/>
+          <a:off x="5227320" y="10977880"/>
           <a:ext cx="2343785" cy="880110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4879,222 +5913,222 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="93.25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="62.625" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="93.25" style="33" customWidth="1"/>
+    <col min="2" max="2" width="62.625" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5107,668 +6141,895 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="50.75" style="29" customWidth="1"/>
-    <col min="2" max="2" width="93.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="73.625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="58.875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="93.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="73.625" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" s="27" customFormat="1" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="1" ht="25.5" spans="1:3">
+      <c r="A3" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" ht="61.5" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C3" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="51" spans="1:3">
+      <c r="A4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="75" spans="1:3">
-      <c r="A5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="30" t="s">
+    <row r="5" s="31" customFormat="1" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="29" t="s">
+    </row>
+    <row r="6" ht="61.5" spans="1:3">
+      <c r="A6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" ht="61.5" spans="1:3">
-      <c r="A6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="29" t="s">
+    <row r="7" ht="75" spans="1:3">
+      <c r="A7" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="C7" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="61.5" spans="1:3">
+      <c r="A8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:3">
+      <c r="A9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="67.5" spans="1:3">
-      <c r="A8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="29" t="s">
+    <row r="10" customFormat="1" ht="67.5" spans="1:3">
+      <c r="A10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:3">
-      <c r="A10" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" s="27" customFormat="1" spans="1:1">
+    <row r="11" s="31" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="67.5" spans="1:4">
-      <c r="A12" s="32" t="s">
+    <row r="12" ht="40.5" spans="1:3">
+      <c r="A12" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" s="31" customFormat="1" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="108" spans="1:4">
-      <c r="A13" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="D14" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="108" spans="1:4">
+      <c r="A15" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="162" spans="1:4">
-      <c r="A14" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="67.5" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="D15" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="30" t="s">
+    </row>
+    <row r="16" customFormat="1" ht="162" spans="1:4">
+      <c r="A16" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="1:3">
-      <c r="A18" s="30" t="s">
+    <row r="17" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:3">
+      <c r="A20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="54" spans="1:3">
-      <c r="A19" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="29" t="s">
+    <row r="21" ht="54" spans="1:3">
+      <c r="A21" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="54" spans="1:3">
-      <c r="A20" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="29" t="s">
+    <row r="22" ht="54" spans="1:3">
+      <c r="A22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" ht="121.5" spans="1:3">
-      <c r="A21" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="29" t="s">
+    <row r="23" ht="121.5" spans="1:3">
+      <c r="A23" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" ht="121.5" spans="1:3">
-      <c r="A22" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="29" t="s">
+    <row r="24" ht="121.5" spans="1:3">
+      <c r="A24" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="121.5" spans="1:3">
-      <c r="A23" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="29" t="s">
+    <row r="25" ht="121.5" spans="1:3">
+      <c r="A25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" ht="121.5" spans="1:3">
-      <c r="A24" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="29" t="s">
+    <row r="26" ht="121.5" spans="1:3">
+      <c r="A26" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" ht="54" spans="1:3">
-      <c r="A25" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="29" t="s">
+    <row r="27" ht="54" spans="1:3">
+      <c r="A27" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="1:3">
-      <c r="A26" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="29" t="s">
+    <row r="28" ht="54" spans="1:3">
+      <c r="A28" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="67.5" spans="1:3">
-      <c r="A27" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="29" t="s">
+    <row r="29" customFormat="1" ht="67.5" spans="1:3">
+      <c r="A29" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="67.5" spans="1:3">
-      <c r="A28" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="29" t="s">
+    <row r="30" customFormat="1" ht="67.5" spans="1:3">
+      <c r="A30" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" s="27" customFormat="1" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="29" t="s">
+    <row r="31" s="31" customFormat="1" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="30" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:3">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" ht="73.5" spans="1:3">
-      <c r="A33" s="30" t="s">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" ht="39" spans="1:3">
-      <c r="A34" s="30" t="s">
+      <c r="C33" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:3">
+      <c r="A34" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:3">
-      <c r="A35" s="30" t="s">
+      <c r="C34" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" ht="73.5" spans="1:3">
+      <c r="A35" s="34" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" ht="54" spans="1:3">
-      <c r="A36" s="30" t="s">
+      <c r="C35" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="39" spans="1:3">
+      <c r="A36" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" ht="37.5" spans="1:3">
-      <c r="A37" s="30" t="s">
+      <c r="C36" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:3">
+      <c r="A37" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" ht="67.5" spans="1:3">
-      <c r="A38" s="30" t="s">
+      <c r="C37" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="54" spans="1:3">
+      <c r="A38" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" ht="49.5" spans="1:3">
-      <c r="A39" s="30" t="s">
+      <c r="C38" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" ht="67.5" spans="1:3">
+      <c r="A39" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" ht="49.5" spans="1:3">
-      <c r="A40" s="30" t="s">
+    <row r="40" ht="81" spans="1:3">
+      <c r="A40" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="29" t="s">
+      <c r="C40" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" ht="67.5" spans="1:3">
+      <c r="A41" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:3">
-      <c r="A42" s="30" t="s">
+      <c r="C41" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" ht="37.5" spans="1:3">
+      <c r="A42" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" ht="121.5" spans="1:3">
-      <c r="A43" s="30" t="s">
+      <c r="C42" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" ht="67.5" spans="1:3">
+      <c r="A43" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" ht="49.5" spans="1:3">
+      <c r="A44" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" ht="54" spans="1:3">
-      <c r="A44" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="29" t="s">
+    <row r="45" ht="49.5" spans="1:3">
+      <c r="A45" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:3">
+      <c r="A47" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" ht="121.5" spans="1:3">
+      <c r="A48" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" ht="54" customHeight="1" spans="1:3">
-      <c r="A45" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="29" t="s">
+    <row r="49" ht="54" spans="1:3">
+      <c r="A49" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" s="28" customFormat="1" spans="1:1">
-      <c r="A46" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="61.5" spans="1:3">
-      <c r="A47" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" ht="61.5" spans="1:3">
-      <c r="A48" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" ht="61.5" spans="1:3">
-      <c r="A49" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" s="28" customFormat="1" spans="1:1">
-      <c r="A50" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" ht="157.5" spans="1:3">
-      <c r="A51" s="36" t="s">
+    <row r="50" ht="54" customHeight="1" spans="1:3">
+      <c r="A50" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B50" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" ht="157.5" spans="1:3">
-      <c r="A52" s="36" t="s">
+      <c r="C50" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" s="32" customFormat="1" spans="1:1">
+      <c r="A51" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="30" t="s">
+    </row>
+    <row r="52" customFormat="1" ht="61.5" spans="1:3">
+      <c r="A52" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="37" t="s">
+      <c r="B52" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="C52" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" ht="61.5" spans="1:3">
+      <c r="A53" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="B53" s="34" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="56" ht="30" customHeight="1" spans="1:3">
-      <c r="A56" s="25" t="s">
+      <c r="C53" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" ht="61.5" spans="1:3">
+      <c r="A54" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="38" t="s">
+      <c r="B54" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-    </row>
-    <row r="58" ht="67.5" spans="1:3">
-      <c r="A58" s="30" t="s">
+      <c r="C54" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" s="32" customFormat="1" spans="1:1">
+      <c r="A55" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="39" t="s">
+    </row>
+    <row r="56" ht="157.5" spans="1:3">
+      <c r="A56" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="B56" s="34" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="59" ht="27" spans="1:3">
-      <c r="A59" s="29" t="s">
+      <c r="C56" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" ht="157.5" spans="1:3">
+      <c r="A57" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B57" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" ht="67.5" spans="1:3">
-      <c r="A60" s="30" t="s">
+      <c r="C57" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B58" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" ht="67.5" spans="1:3">
-      <c r="A61" s="30" t="s">
+      <c r="C58" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:1">
+      <c r="A60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="30" t="s">
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:3">
+      <c r="A61" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" ht="54" spans="1:3">
-      <c r="A62" s="30" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+    </row>
+    <row r="63" ht="67.5" spans="1:3">
+      <c r="A63" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" ht="54" spans="1:3">
-      <c r="A63" s="30" t="s">
+      <c r="B63" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="C63" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" s="28" customFormat="1" spans="1:1">
-      <c r="A65" s="35" t="s">
+    </row>
+    <row r="64" ht="27" spans="1:3">
+      <c r="A64" s="33" t="s">
         <v>174</v>
       </c>
+      <c r="B64" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" ht="67.5" spans="1:3">
+      <c r="A65" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="66" ht="67.5" spans="1:3">
-      <c r="A66" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>112</v>
+      <c r="A66" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" ht="54" spans="1:3">
+      <c r="A67" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="1:3">
+      <c r="A68" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" s="32" customFormat="1" spans="1:1">
+      <c r="A70" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" ht="67.5" spans="1:3">
+      <c r="A71" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="45"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:2">
+      <c r="A75" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="47"/>
+    </row>
+    <row r="76" customFormat="1" spans="1:2">
+      <c r="A76" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="47"/>
+    </row>
+    <row r="77" customFormat="1" spans="1:2">
+      <c r="A77" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="47"/>
+    </row>
+    <row r="78" customFormat="1" spans="1:2">
+      <c r="A78" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="47"/>
+    </row>
+    <row r="79" customFormat="1" spans="1:2">
+      <c r="A79" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="49"/>
+    </row>
+    <row r="80" customFormat="1" ht="73.5" spans="1:3">
+      <c r="A80" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" ht="51" spans="1:3">
+      <c r="A81" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" ht="67.5" spans="1:3">
+      <c r="A82" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" ht="51" spans="1:3">
+      <c r="A83" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" ht="51" spans="1:3">
+      <c r="A84" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:1">
+      <c r="A85" s="33"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1" spans="1:3">
+      <c r="A87" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+    </row>
+    <row r="88" ht="67.5" spans="1:3">
+      <c r="A88" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" ht="67.5" spans="1:3">
+      <c r="A89" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="1:3">
+      <c r="A90" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" ht="49.5" spans="1:3">
+      <c r="A91" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" ht="37.5" spans="1:3">
+      <c r="A92" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
+  <mergeCells count="8">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5781,8 +7042,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -5791,62 +7052,62 @@
     <col min="2" max="2" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A1" s="26" t="s">
-        <v>177</v>
+    <row r="1" s="15" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A1" s="30" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" s="14" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="26" t="s">
-        <v>182</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5859,1275 +7120,1437 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="72.625" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>236</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>200</v>
+        <v>239</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>205</v>
+        <v>244</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>208</v>
+        <v>247</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>216</v>
+        <v>255</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>221</v>
+        <v>260</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>197</v>
+        <v>263</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>226</v>
+        <v>265</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>268</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>234</v>
+        <v>273</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>234</v>
+        <v>276</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="19" ht="37.5" spans="1:3">
       <c r="A19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>239</v>
+        <v>277</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:3">
       <c r="A20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:4">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>229</v>
+        <v>293</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>229</v>
+        <v>295</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" s="3" customFormat="1" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="12"/>
+        <v>303</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:4">
-      <c r="A33" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:4">
+      <c r="A34" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:4">
-      <c r="A36" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="12"/>
+        <v>311</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:4">
+      <c r="A37" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="12"/>
+        <v>317</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:4">
-      <c r="A41" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="1:4">
-      <c r="A46" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="16"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:4">
+        <v>331</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" s="4" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:4">
+      <c r="A49" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="37.5" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="1:4">
-      <c r="A51" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:4">
-      <c r="A53" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" ht="61.5" spans="1:4">
-      <c r="A54" t="s">
-        <v>306</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" ht="25.5" spans="1:4">
-      <c r="A55" t="s">
-        <v>310</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="37.5" spans="1:4">
-      <c r="A56" t="s">
-        <v>314</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" customFormat="1" ht="25.5" spans="1:4">
-      <c r="A57" t="s">
-        <v>316</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:4">
-      <c r="A58" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>321</v>
-      </c>
-      <c r="B59" t="s">
-        <v>322</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>323</v>
-      </c>
-      <c r="B60" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" t="s">
-        <v>326</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>328</v>
-      </c>
-      <c r="B62" t="s">
-        <v>329</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B63" t="s">
-        <v>332</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>333</v>
-      </c>
-      <c r="B64" t="s">
-        <v>334</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>336</v>
-      </c>
-      <c r="B65" t="s">
         <v>337</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="B50" s="18" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:4">
-      <c r="A66" s="8" t="s">
+      <c r="C50" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:4">
+      <c r="A51" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="B51" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="B52" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="C52" s="19" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>325</v>
-      </c>
-      <c r="B69" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" s="4" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:4">
+      <c r="A57" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" s="5" customFormat="1" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" s="5" customFormat="1" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" s="5" customFormat="1" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:4">
+      <c r="A64" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" s="5" customFormat="1" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" s="5" customFormat="1" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" s="5" customFormat="1" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:5">
+      <c r="A68" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:4">
+      <c r="A69" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" ht="61.5" spans="1:4">
       <c r="A70" t="s">
-        <v>328</v>
-      </c>
-      <c r="B70" t="s">
-        <v>329</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="1:4">
-      <c r="A71" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:4">
-      <c r="A72" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:4">
-      <c r="A73" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:4">
-      <c r="A74" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:5">
-      <c r="A75" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="14"/>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="1:4">
-      <c r="A76" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" ht="61.5" spans="1:4">
+        <v>380</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" spans="1:4">
+      <c r="A71" t="s">
+        <v>384</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A72" t="s">
+        <v>388</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:4">
+      <c r="A74" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" t="s">
+        <v>396</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" t="s">
+        <v>398</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>399</v>
+      </c>
+      <c r="B77" t="s">
+        <v>400</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="1:4">
-      <c r="A79" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4">
+        <v>402</v>
+      </c>
+      <c r="B78" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>405</v>
+      </c>
+      <c r="B79" t="s">
+        <v>406</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>358</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>407</v>
+      </c>
+      <c r="B80" t="s">
+        <v>408</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>360</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:4">
-      <c r="A82" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="1:4">
-      <c r="A83" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+        <v>409</v>
+      </c>
+      <c r="B81" t="s">
+        <v>410</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:4">
+      <c r="A82" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>414</v>
+      </c>
+      <c r="B83" t="s">
+        <v>415</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s">
-        <v>322</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>197</v>
+        <v>299</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>294</v>
+        <v>400</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>328</v>
-      </c>
-      <c r="B87" t="s">
-        <v>329</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+        <v>403</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:4">
+      <c r="A87" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:4">
+      <c r="A89" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:4">
+      <c r="A90" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:5">
+      <c r="A91" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:4">
+      <c r="A92" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" ht="61.5" spans="1:4">
+      <c r="A93" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>384</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:4">
+      <c r="A95" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B88" t="s">
-        <v>366</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>367</v>
-      </c>
-      <c r="B89" t="s">
-        <v>368</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" spans="1:4">
-      <c r="A90" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>371</v>
-      </c>
-      <c r="B91" t="s">
-        <v>372</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>373</v>
-      </c>
-      <c r="B92" t="s">
-        <v>374</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>325</v>
-      </c>
-      <c r="B93" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>328</v>
-      </c>
-      <c r="B94" t="s">
-        <v>329</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" spans="1:4">
-      <c r="A95" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:4">
-      <c r="A96" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D96" s="12"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="1:4">
-      <c r="A97" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" s="12"/>
+      <c r="D96" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="98" s="3" customFormat="1" spans="1:4">
       <c r="A98" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="1:4">
-      <c r="A99" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="1:4">
-      <c r="A100" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D100" s="12"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="1:4">
-      <c r="A101" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" s="12"/>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:5">
-      <c r="A102" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="14"/>
-    </row>
-    <row r="103" s="2" customFormat="1" spans="1:4">
-      <c r="A103" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+        <v>435</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" spans="1:4">
+      <c r="A99" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>395</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>397</v>
+      </c>
+      <c r="B101" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" t="s">
+        <v>400</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" t="s">
+        <v>403</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="B104" t="s">
-        <v>393</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>234</v>
+        <v>439</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="B105" t="s">
-        <v>395</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>396</v>
-      </c>
-      <c r="B106" t="s">
-        <v>397</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="107" s="2" customFormat="1" spans="1:4">
-      <c r="A107" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B107" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:4">
+      <c r="A106" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" t="s">
+        <v>445</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" t="s">
+        <v>447</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>399</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" customFormat="1" ht="37.5" spans="1:4">
-      <c r="A108" t="s">
+      <c r="B109" t="s">
         <v>400</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" ht="37.5" spans="1:4">
-      <c r="A109" t="s">
+      <c r="C109" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>402</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B110" t="s">
         <v>403</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" s="2" customFormat="1" spans="1:4">
-      <c r="A110" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="1:4">
-      <c r="A111" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="12"/>
+      <c r="C110" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="1:4">
+      <c r="A111" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:4">
+      <c r="A112" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D112" s="13"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" s="13"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" s="13"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="13"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:4">
+      <c r="A116" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="13"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:4">
+      <c r="A117" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117" s="13"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:5">
+      <c r="A118" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:4">
+      <c r="A119" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>467</v>
+      </c>
+      <c r="B121" t="s">
+        <v>468</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>469</v>
+      </c>
+      <c r="B122" t="s">
+        <v>470</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" spans="1:4">
+      <c r="A123" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A124" t="s">
+        <v>473</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A125" t="s">
+        <v>475</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="1:4">
+      <c r="A126" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
